--- a/文档/任务.xlsx
+++ b/文档/任务.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\account\test\node_model\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E0D31-AAD8-480B-8223-EF1AC558859B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73AF4E9-D511-4005-A18B-00116A766454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{0BBAD129-D91A-4101-BDF8-AE33F679B682}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="未完成" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>产品金额或利率可以为负数；代码是根据数据库数据生成的怎么改，加一个字段？</t>
   </si>
@@ -103,25 +104,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inputtree，点击叉号清空不了值</t>
-  </si>
-  <si>
     <t>产品要素中那些prdt_type为0的虽然默认成文本框了，但是x号清空不了；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总账有无特殊字符校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datagrid/index.js文件查询参数复选框清空不生效的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">修改要素管理复选框有逗号问题 、查询列表展示不完全 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交易分类管理修改可以选择上级分类为自己的子节点；（已解决）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inputtree清空不完全问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品生成代码中relchange方法instance为null；（已解决）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>隐藏首页的搜索框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3)#6416355管理端--&gt;账户系统--&gt;特殊业务管理--&gt;存款开户，交易类型下拉框内容被遮挡;（已修改combo.js）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2）交易类型 下拉框还是有遮挡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>     起息日期  -- 产品计息界面（开户当日支取是否计息）-- 是时，起息日期为当天，否则未下一自然日；（置灰）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +236,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1）存款开户界面要素限制：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sql关键字in会让索引失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,11 +244,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和程若红说一下easyui文件的修改，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账户属性设置-账户属性类别，查询条件不生效（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select类型的下拉框是以name作为条件查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户日志查询没数据，页面请求参数不带页面信息，交易名称为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型管理新增交易码显示（已解决，新增页面隐藏，修改页面显示置灰）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易接口模型新增接口配置问题,关闭按钮改为确定（关闭按钮改为确定、新增关闭按钮、新增加校验）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易接口模型接口配置页面加个关闭按钮，功能只关闭页面（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和程若红说一下easyui文件的修改，（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2）交易类型 下拉框还是有遮挡（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1）存款开户界面要素限制：（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputtree清空不完全问题（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏首页的搜索框（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session获取日期的问题，window.sys_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原子交易信息维护、微服务选择、微服务新增页、自定义查询新增-新增-信息类别。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputtreegrid初始化查询了三次数据？？？</t>
+  </si>
+  <si>
+    <t>修改要素管理复选框有逗号问题 、查询列表展示不完全 (已解决)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datagrid/index.js文件查询参数复选框清空不生效的问题（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总账有无特殊字符校验（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inputtree，点击叉号清空不了值（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型管理下的额外参数文本框点击叉号都清空不了数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,6 +783,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>670560</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9910471</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B12EFB1-2FE9-40AC-9253-4346A9285F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="21496021"/>
+          <a:ext cx="9948571" cy="3779520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>708659</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>30842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9917052</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB2DEC7-DC0D-4354-9908-859B23F8D5EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708659" y="25443542"/>
+          <a:ext cx="9917053" cy="3565798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1047,11 +1172,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59C63C-0340-4959-A951-4B331ADA8A31}">
+  <dimension ref="B1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759FA18-4951-4653-B186-0BFF0B7D2F6D}">
-  <dimension ref="A3:F115"/>
+  <dimension ref="A3:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1257,7 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
@@ -1108,12 +1297,12 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
@@ -1173,22 +1362,22 @@
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1196,22 +1385,22 @@
         <v>20200323</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1232,7 +1421,7 @@
         <v>20200324</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1240,7 +1429,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1248,7 +1437,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1256,7 +1445,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1264,7 +1453,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1280,22 +1469,22 @@
         <v>20200325</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1303,40 +1492,40 @@
         <v>20200326</v>
       </c>
       <c r="B57" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,22 +1533,22 @@
         <v>20200331</v>
       </c>
       <c r="B90" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1367,72 +1556,113 @@
         <v>20200401</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>20200410</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>20200410</v>
+      </c>
+      <c r="B168" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/文档/任务.xlsx
+++ b/文档/任务.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\account\test\node_model\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73AF4E9-D511-4005-A18B-00116A766454}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BE1D5-F4F5-4C05-ACAC-C4067F6F6A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{0BBAD129-D91A-4101-BDF8-AE33F679B682}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>产品金额或利率可以为负数；代码是根据数据库数据生成的怎么改，加一个字段？</t>
   </si>
@@ -316,6 +316,37 @@
   </si>
   <si>
     <t>交易模型管理下的额外参数文本框点击叉号都清空不了数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期控件点击今天不是当前系统的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session获取日期的问题，window.sys_date（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款开户期限控制，幸福盈46等产品，固定期限是否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存后点击修改-检查标识为Y</t>
+  </si>
+  <si>
+    <t>交易模型管理-详情-启用为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型分类-上级分类不选，默认做自己的上级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制规则管理，查询条件点击X清空失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,74 +1204,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59C63C-0340-4959-A951-4B331ADA8A31}">
-  <dimension ref="B1:B14"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759FA18-4951-4653-B186-0BFF0B7D2F6D}">
-  <dimension ref="A3:F169"/>
+  <dimension ref="A3:F172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1665,6 +1725,14 @@
         <v>66</v>
       </c>
     </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>20200413</v>
+      </c>
+      <c r="B172" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/任务.xlsx
+++ b/文档/任务.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\account\test\node_model\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261BE1D5-F4F5-4C05-ACAC-C4067F6F6A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F871EE9-E49A-44F5-8A04-9500B2CB3A7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{0BBAD129-D91A-4101-BDF8-AE33F679B682}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="1" xr2:uid="{0BBAD129-D91A-4101-BDF8-AE33F679B682}"/>
   </bookViews>
   <sheets>
     <sheet name="未完成" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>产品金额或利率可以为负数；代码是根据数据库数据生成的怎么改，加一个字段？</t>
   </si>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>交易模型管理下的额外参数文本框点击叉号都清空不了数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期控件点击今天不是当前系统的日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,15 +334,51 @@
     <t>保存后点击修改-检查标识为Y</t>
   </si>
   <si>
-    <t>交易模型管理-详情-启用为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易模型分类-上级分类不选，默认做自己的上级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制规则管理，查询条件点击X清空失败</t>
+    <t>交易模型管理下的额外参数文本框点击叉号都清空不了数据（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型分类-上级分类不选，默认做自己的上级（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款开户，用已经存在的账号开户，会向AMS_OUT_AC_NO_REL表再插入一条数据，后面查询的时候用了getby，查出了两条，结果溢出报错了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的treegrid走gridsearch方法，不判断查询参数，默认第一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通的datagrid走gridsearch方法，根据是否有参数，决定第一页还是当前页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承abstractMainPage.js的treegrid，查询会走reloadList，分页栏事件被覆盖，点击分页栏会按条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承abstractMainPage.js的datagrid，查询会走reloadList，分页栏按照上一次查询的条件继续查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日管理是特殊处理的，最后修改一下（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型管理-详情-启用为空（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易模型分类-清空后把层级设置成1（已解决）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（已解决）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,10 +1236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59C63C-0340-4959-A951-4B331ADA8A31}">
-  <dimension ref="B1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1215,77 +1247,112 @@
     <col min="2" max="2" width="83.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>74</v>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1759FA18-4951-4653-B186-0BFF0B7D2F6D}">
   <dimension ref="A3:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
@@ -1730,7 +1797,7 @@
         <v>20200413</v>
       </c>
       <c r="B172" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
